--- a/storage/excel/Thông tin thí sinh dự thi.xlsx
+++ b/storage/excel/Thông tin thí sinh dự thi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3733">
   <si>
     <t>Id</t>
   </si>
@@ -11139,6 +11139,81 @@
   </si>
   <si>
     <t>2020-07-10 23:43:47</t>
+  </si>
+  <si>
+    <t>Lìu Văn Bằng</t>
+  </si>
+  <si>
+    <t>liuvanbang@gmail.com</t>
+  </si>
+  <si>
+    <t>0342006160</t>
+  </si>
+  <si>
+    <t>Http://www.facebook.com/bang.luu.1884</t>
+  </si>
+  <si>
+    <t>2020-07-11 00:15:34</t>
+  </si>
+  <si>
+    <t>Hoàng Danh Tuấn</t>
+  </si>
+  <si>
+    <t>hoangtuan130101@gmail.com</t>
+  </si>
+  <si>
+    <t>0705447357</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100013071973424</t>
+  </si>
+  <si>
+    <t>2020-07-11 00:18:08</t>
+  </si>
+  <si>
+    <t>Đặng Thị Quỳnh Mai</t>
+  </si>
+  <si>
+    <t>maiquynhdang91@gmail.com</t>
+  </si>
+  <si>
+    <t>0395226518</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100033380408059</t>
+  </si>
+  <si>
+    <t>2020-07-11 00:42:49</t>
+  </si>
+  <si>
+    <t>Nguyễn Anh Tùng</t>
+  </si>
+  <si>
+    <t>nguyentung108201@gmail.com</t>
+  </si>
+  <si>
+    <t>0838921296</t>
+  </si>
+  <si>
+    <t>Nguyễn Tùng</t>
+  </si>
+  <si>
+    <t>2020-07-11 07:31:11</t>
+  </si>
+  <si>
+    <t>Phạm Thị Nguyệt</t>
+  </si>
+  <si>
+    <t>phamthinguyet1999@gmail.com</t>
+  </si>
+  <si>
+    <t>0342130907</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/mun.pham.7186/</t>
+  </si>
+  <si>
+    <t>2020-07-11 10:36:17</t>
   </si>
 </sst>
 </file>
@@ -11478,7 +11553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J686"/>
+  <dimension ref="A1:J691"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -33450,6 +33525,166 @@
         <v>3707</v>
       </c>
     </row>
+    <row r="687" spans="1:10">
+      <c r="A687">
+        <v>704</v>
+      </c>
+      <c r="B687" t="s">
+        <v>3708</v>
+      </c>
+      <c r="C687" t="s">
+        <v>3709</v>
+      </c>
+      <c r="D687" t="s">
+        <v>3710</v>
+      </c>
+      <c r="E687" t="s">
+        <v>68</v>
+      </c>
+      <c r="F687" t="s">
+        <v>304</v>
+      </c>
+      <c r="G687" t="s">
+        <v>455</v>
+      </c>
+      <c r="H687" t="s">
+        <v>3711</v>
+      </c>
+      <c r="I687" t="s">
+        <v>49</v>
+      </c>
+      <c r="J687" t="s">
+        <v>3712</v>
+      </c>
+    </row>
+    <row r="688" spans="1:10">
+      <c r="A688">
+        <v>705</v>
+      </c>
+      <c r="B688" t="s">
+        <v>3713</v>
+      </c>
+      <c r="C688" t="s">
+        <v>3714</v>
+      </c>
+      <c r="D688" t="s">
+        <v>3715</v>
+      </c>
+      <c r="E688" t="s">
+        <v>175</v>
+      </c>
+      <c r="F688" t="s">
+        <v>22</v>
+      </c>
+      <c r="G688">
+        <v>2023</v>
+      </c>
+      <c r="H688" t="s">
+        <v>3716</v>
+      </c>
+      <c r="I688" t="s">
+        <v>49</v>
+      </c>
+      <c r="J688" t="s">
+        <v>3717</v>
+      </c>
+    </row>
+    <row r="689" spans="1:10">
+      <c r="A689">
+        <v>706</v>
+      </c>
+      <c r="B689" t="s">
+        <v>3718</v>
+      </c>
+      <c r="C689" t="s">
+        <v>3719</v>
+      </c>
+      <c r="D689" t="s">
+        <v>3720</v>
+      </c>
+      <c r="E689" t="s">
+        <v>68</v>
+      </c>
+      <c r="F689" t="s">
+        <v>182</v>
+      </c>
+      <c r="G689">
+        <v>2023</v>
+      </c>
+      <c r="H689" t="s">
+        <v>3721</v>
+      </c>
+      <c r="I689" t="s">
+        <v>49</v>
+      </c>
+      <c r="J689" t="s">
+        <v>3722</v>
+      </c>
+    </row>
+    <row r="690" spans="1:10">
+      <c r="A690">
+        <v>707</v>
+      </c>
+      <c r="B690" t="s">
+        <v>3723</v>
+      </c>
+      <c r="C690" t="s">
+        <v>3724</v>
+      </c>
+      <c r="D690" t="s">
+        <v>3725</v>
+      </c>
+      <c r="E690" t="s">
+        <v>175</v>
+      </c>
+      <c r="F690" t="s">
+        <v>182</v>
+      </c>
+      <c r="G690">
+        <v>2022</v>
+      </c>
+      <c r="H690" t="s">
+        <v>3726</v>
+      </c>
+      <c r="I690" t="s">
+        <v>49</v>
+      </c>
+      <c r="J690" t="s">
+        <v>3727</v>
+      </c>
+    </row>
+    <row r="691" spans="1:10">
+      <c r="A691">
+        <v>708</v>
+      </c>
+      <c r="B691" t="s">
+        <v>3728</v>
+      </c>
+      <c r="C691" t="s">
+        <v>3729</v>
+      </c>
+      <c r="D691" t="s">
+        <v>3730</v>
+      </c>
+      <c r="E691" t="s">
+        <v>175</v>
+      </c>
+      <c r="F691" t="s">
+        <v>74</v>
+      </c>
+      <c r="G691">
+        <v>2021</v>
+      </c>
+      <c r="H691" t="s">
+        <v>3731</v>
+      </c>
+      <c r="I691" t="s">
+        <v>49</v>
+      </c>
+      <c r="J691" t="s">
+        <v>3732</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
